--- a/libs/All_OBIS.xlsx
+++ b/libs/All_OBIS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02654B5E-D56B-472B-A048-960EE2E83E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB06583A-3A67-4C88-8B95-28ABFEBCCCA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2790" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="854">
   <si>
     <t>OBIS</t>
   </si>
@@ -2601,6 +2601,24 @@
   </si>
   <si>
     <t>Управление автоконнектом в режиме клиента (кучтенеч)</t>
+  </si>
+  <si>
+    <t>0.0.2.164.17.255</t>
+  </si>
+  <si>
+    <t>0.0.2.164.18.255</t>
+  </si>
+  <si>
+    <t>0.0.2.164.19.255</t>
+  </si>
+  <si>
+    <t>хеш</t>
+  </si>
+  <si>
+    <t>кодировка</t>
+  </si>
+  <si>
+    <t>какой хекс</t>
   </si>
 </sst>
 </file>
@@ -3335,7 +3353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N366"/>
+  <dimension ref="A1:N369"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B354" activePane="bottomRight" state="frozen"/>
@@ -11437,6 +11455,30 @@
       </c>
       <c r="G366" s="5" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A367" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="C367" s="10" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A368" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="C368" s="10" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="C369" s="10" t="s">
+        <v>853</v>
       </c>
     </row>
   </sheetData>

--- a/libs/All_OBIS.xlsx
+++ b/libs/All_OBIS.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB06583A-3A67-4C88-8B95-28ABFEBCCCA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DC7113-A6DD-4439-BC67-CDCC0DED81C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2790" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2445" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$323</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$369</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2225,9 +2225,6 @@
     <t>0.0.2.164.11.255</t>
   </si>
   <si>
-    <t>Флаг блокировки обновления базовой прошивки</t>
-  </si>
-  <si>
     <t>0.0.2.164.12.255</t>
   </si>
   <si>
@@ -2619,6 +2616,9 @@
   </si>
   <si>
     <t>какой хекс</t>
+  </si>
+  <si>
+    <t>Пороги срабатывания детектора короткого замыкания</t>
   </si>
 </sst>
 </file>
@@ -3356,10 +3356,10 @@
   <dimension ref="A1:N369"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B354" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B348" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C369" sqref="C369"/>
+      <selection pane="bottomRight" activeCell="A364" sqref="A364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B51" s="12">
         <v>1</v>
@@ -5149,7 +5149,7 @@
         <v>3</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>709</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A85" s="20" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B85" s="12">
         <v>3</v>
@@ -5350,7 +5350,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="20" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B86" s="12">
         <v>3</v>
@@ -5373,7 +5373,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="20" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B87" s="12">
         <v>3</v>
@@ -5396,7 +5396,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="20" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B88" s="12">
         <v>3</v>
@@ -5419,7 +5419,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="20" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B89" s="12">
         <v>3</v>
@@ -5442,7 +5442,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="20" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B90" s="12">
         <v>3</v>
@@ -5465,7 +5465,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="20" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B91" s="12">
         <v>3</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A92" s="20" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B92" s="12">
         <v>3</v>
@@ -5511,7 +5511,7 @@
     </row>
     <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A93" s="20" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B93" s="12">
         <v>3</v>
@@ -5534,7 +5534,7 @@
     </row>
     <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A94" s="20" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B94" s="12">
         <v>3</v>
@@ -5557,7 +5557,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="20" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B95" s="12">
         <v>3</v>
@@ -5580,7 +5580,7 @@
     </row>
     <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A96" s="20" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B96" s="12">
         <v>3</v>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="99" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A99" s="21" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B99" s="12">
         <v>3</v>
@@ -5672,7 +5672,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="20" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B100" s="12">
         <v>3</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B110" s="12">
         <v>3</v>
@@ -6201,7 +6201,7 @@
     </row>
     <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A123" s="20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B123" s="12">
         <v>3</v>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="20" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B124" s="12">
         <v>3</v>
@@ -6546,7 +6546,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="23" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B138" s="12">
         <v>7</v>
@@ -6889,7 +6889,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="20" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B153" s="12">
         <v>7</v>
@@ -6912,7 +6912,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="20" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B154" s="12">
         <v>7</v>
@@ -6935,7 +6935,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B155" s="12">
         <v>7</v>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B156" s="12">
         <v>7</v>
@@ -7525,7 +7525,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="20" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B181" s="12">
         <v>71</v>
@@ -7548,7 +7548,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="20" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B182" s="12">
         <v>71</v>
@@ -7571,7 +7571,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="20" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B183" s="12">
         <v>71</v>
@@ -7594,7 +7594,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="20" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B184" s="12">
         <v>71</v>
@@ -7617,7 +7617,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="21" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B185" s="12">
         <v>71</v>
@@ -7640,7 +7640,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B186" s="12">
         <v>71</v>
@@ -8224,7 +8224,7 @@
         <v>460</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>250</v>
@@ -8247,7 +8247,7 @@
         <v>461</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>250</v>
@@ -8270,7 +8270,7 @@
         <v>462</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E213" s="5" t="s">
         <v>250</v>
@@ -8284,7 +8284,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="14" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B214" s="12">
         <v>3</v>
@@ -8293,7 +8293,7 @@
         <v>463</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>250</v>
@@ -8316,7 +8316,7 @@
         <v>464</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>250</v>
@@ -8339,7 +8339,7 @@
         <v>465</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>250</v>
@@ -8362,7 +8362,7 @@
         <v>466</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>250</v>
@@ -8385,7 +8385,7 @@
         <v>467</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>250</v>
@@ -8399,7 +8399,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="12" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B219" s="12">
         <v>3</v>
@@ -8408,7 +8408,7 @@
         <v>468</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>250</v>
@@ -8445,7 +8445,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B221" s="12">
         <v>3</v>
@@ -8454,7 +8454,7 @@
         <v>470</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>250</v>
@@ -8477,7 +8477,7 @@
         <v>471</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E222" s="5" t="s">
         <v>250</v>
@@ -8500,7 +8500,7 @@
         <v>472</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>250</v>
@@ -8523,7 +8523,7 @@
         <v>473</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>250</v>
@@ -8546,7 +8546,7 @@
         <v>474</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>250</v>
@@ -8560,7 +8560,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="12" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B226" s="12">
         <v>3</v>
@@ -8569,7 +8569,7 @@
         <v>475</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>250</v>
@@ -8592,7 +8592,7 @@
         <v>476</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E227" s="5" t="s">
         <v>250</v>
@@ -8606,7 +8606,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B228" s="12">
         <v>3</v>
@@ -8615,7 +8615,7 @@
         <v>477</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>250</v>
@@ -8638,7 +8638,7 @@
         <v>478</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>250</v>
@@ -8661,7 +8661,7 @@
         <v>479</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E230" s="5" t="s">
         <v>250</v>
@@ -8684,7 +8684,7 @@
         <v>480</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E231" s="5" t="s">
         <v>250</v>
@@ -8707,7 +8707,7 @@
         <v>481</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E232" s="5" t="s">
         <v>250</v>
@@ -8730,7 +8730,7 @@
         <v>482</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E233" s="5" t="s">
         <v>250</v>
@@ -8744,7 +8744,7 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B234" s="12">
         <v>3</v>
@@ -8753,7 +8753,7 @@
         <v>483</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E234" s="5" t="s">
         <v>250</v>
@@ -8776,7 +8776,7 @@
         <v>484</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E235" s="5" t="s">
         <v>250</v>
@@ -8799,7 +8799,7 @@
         <v>485</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E236" s="5" t="s">
         <v>250</v>
@@ -8822,7 +8822,7 @@
         <v>486</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E237" s="5" t="s">
         <v>250</v>
@@ -8836,7 +8836,7 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="12" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B238" s="12">
         <v>3</v>
@@ -8845,7 +8845,7 @@
         <v>487</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E238" s="5" t="s">
         <v>250</v>
@@ -8859,7 +8859,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B239" s="12">
         <v>3</v>
@@ -8868,7 +8868,7 @@
         <v>488</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E239" s="5" t="s">
         <v>250</v>
@@ -8882,7 +8882,7 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="12" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B240" s="12">
         <v>3</v>
@@ -8891,7 +8891,7 @@
         <v>489</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E240" s="5" t="s">
         <v>250</v>
@@ -8914,7 +8914,7 @@
         <v>490</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E241" s="5" t="s">
         <v>250</v>
@@ -8935,7 +8935,7 @@
         <v>491</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E242" s="5" t="s">
         <v>250</v>
@@ -8956,7 +8956,7 @@
         <v>492</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E243" s="5" t="s">
         <v>250</v>
@@ -8979,7 +8979,7 @@
         <v>493</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>250</v>
@@ -9002,7 +9002,7 @@
         <v>494</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E245" s="5" t="s">
         <v>250</v>
@@ -9025,7 +9025,7 @@
         <v>495</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E246" s="5" t="s">
         <v>250</v>
@@ -9048,7 +9048,7 @@
         <v>496</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E247" s="5" t="s">
         <v>250</v>
@@ -9071,7 +9071,7 @@
         <v>497</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E248" s="5" t="s">
         <v>250</v>
@@ -9094,7 +9094,7 @@
         <v>498</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E249" s="5" t="s">
         <v>250</v>
@@ -9117,7 +9117,7 @@
         <v>499</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E250" s="5" t="s">
         <v>250</v>
@@ -9140,7 +9140,7 @@
         <v>500</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E251" s="5" t="s">
         <v>250</v>
@@ -9163,7 +9163,7 @@
         <v>501</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E252" s="5" t="s">
         <v>250</v>
@@ -9186,7 +9186,7 @@
         <v>502</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E253" s="5" t="s">
         <v>250</v>
@@ -9209,7 +9209,7 @@
         <v>503</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E254" s="5" t="s">
         <v>250</v>
@@ -9223,7 +9223,7 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="14" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B255" s="12">
         <v>3</v>
@@ -9288,7 +9288,7 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="14" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B258" s="12">
         <v>3</v>
@@ -9311,13 +9311,13 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="14" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B259" s="12">
         <v>5</v>
       </c>
       <c r="C259" s="32" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>709</v>
@@ -9341,7 +9341,7 @@
         <v>520</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E260" s="5" t="s">
         <v>250</v>
@@ -9362,7 +9362,7 @@
         <v>653</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E261" s="5" t="s">
         <v>249</v>
@@ -9704,7 +9704,7 @@
         <v>648</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E277" s="5" t="s">
         <v>250</v>
@@ -9725,7 +9725,7 @@
         <v>649</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E278" s="5" t="s">
         <v>250</v>
@@ -9746,7 +9746,7 @@
         <v>650</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E279" s="5" t="s">
         <v>250</v>
@@ -9767,7 +9767,7 @@
         <v>652</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E280" s="5" t="s">
         <v>250</v>
@@ -9788,7 +9788,7 @@
         <v>651</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E281" s="5" t="s">
         <v>250</v>
@@ -10179,7 +10179,7 @@
         <v>646</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E300" s="5" t="s">
         <v>249</v>
@@ -10556,7 +10556,7 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B319" s="11">
         <v>3</v>
@@ -10662,10 +10662,10 @@
         <v>1</v>
       </c>
       <c r="C324" s="10" t="s">
-        <v>722</v>
+        <v>853</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="E324" s="5" t="s">
         <v>249</v>
@@ -10676,13 +10676,13 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="B325" s="11">
+        <v>1</v>
+      </c>
+      <c r="C325" s="10" t="s">
         <v>723</v>
-      </c>
-      <c r="B325" s="11">
-        <v>1</v>
-      </c>
-      <c r="C325" s="10" t="s">
-        <v>724</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>709</v>
@@ -10696,13 +10696,13 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="B326" s="11">
+        <v>1</v>
+      </c>
+      <c r="C326" s="10" t="s">
         <v>725</v>
-      </c>
-      <c r="B326" s="11">
-        <v>1</v>
-      </c>
-      <c r="C326" s="10" t="s">
-        <v>726</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>709</v>
@@ -10716,13 +10716,13 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="B327" s="11">
+        <v>1</v>
+      </c>
+      <c r="C327" s="10" t="s">
         <v>727</v>
-      </c>
-      <c r="B327" s="11">
-        <v>1</v>
-      </c>
-      <c r="C327" s="10" t="s">
-        <v>728</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>709</v>
@@ -10736,13 +10736,13 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="B328" s="11">
+        <v>1</v>
+      </c>
+      <c r="C328" s="10" t="s">
         <v>729</v>
-      </c>
-      <c r="B328" s="11">
-        <v>1</v>
-      </c>
-      <c r="C328" s="10" t="s">
-        <v>730</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>709</v>
@@ -10756,13 +10756,13 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="B329" s="11">
+        <v>1</v>
+      </c>
+      <c r="C329" s="10" t="s">
         <v>774</v>
-      </c>
-      <c r="B329" s="11">
-        <v>1</v>
-      </c>
-      <c r="C329" s="10" t="s">
-        <v>775</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>709</v>
@@ -10776,13 +10776,13 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="B330" s="11">
+        <v>1</v>
+      </c>
+      <c r="C330" s="10" t="s">
         <v>776</v>
-      </c>
-      <c r="B330" s="11">
-        <v>1</v>
-      </c>
-      <c r="C330" s="10" t="s">
-        <v>777</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>709</v>
@@ -10796,13 +10796,13 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="B331" s="11">
+        <v>1</v>
+      </c>
+      <c r="C331" s="10" t="s">
         <v>778</v>
-      </c>
-      <c r="B331" s="11">
-        <v>1</v>
-      </c>
-      <c r="C331" s="10" t="s">
-        <v>779</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>709</v>
@@ -10816,13 +10816,13 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="B332" s="11">
+        <v>1</v>
+      </c>
+      <c r="C332" s="10" t="s">
         <v>780</v>
-      </c>
-      <c r="B332" s="11">
-        <v>1</v>
-      </c>
-      <c r="C332" s="10" t="s">
-        <v>781</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>709</v>
@@ -10836,13 +10836,13 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B333" s="11">
         <v>1</v>
       </c>
       <c r="C333" s="10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>709</v>
@@ -10856,13 +10856,13 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B334" s="11">
         <v>1</v>
       </c>
       <c r="C334" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>709</v>
@@ -10876,13 +10876,13 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="11" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B335" s="11">
         <v>1</v>
       </c>
       <c r="C335" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>709</v>
@@ -10896,13 +10896,13 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="11" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B336" s="11">
         <v>1</v>
       </c>
       <c r="C336" s="10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>709</v>
@@ -10916,13 +10916,13 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="11" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B337" s="11">
         <v>1</v>
       </c>
       <c r="C337" s="10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>709</v>
@@ -10936,13 +10936,13 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="11" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B338" s="11">
         <v>1</v>
       </c>
       <c r="C338" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>709</v>
@@ -10956,13 +10956,13 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="11" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B339" s="11">
         <v>1</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>709</v>
@@ -10976,13 +10976,13 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B340" s="11">
         <v>1</v>
       </c>
       <c r="C340" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>709</v>
@@ -10996,13 +10996,13 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B341" s="11">
         <v>1</v>
       </c>
       <c r="C341" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>709</v>
@@ -11016,13 +11016,13 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B342" s="11">
         <v>1</v>
       </c>
       <c r="C342" s="10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>709</v>
@@ -11036,13 +11036,13 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B343" s="11">
         <v>1</v>
       </c>
       <c r="C343" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>709</v>
@@ -11056,13 +11056,13 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="11" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B344" s="11">
         <v>1</v>
       </c>
       <c r="C344" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>709</v>
@@ -11076,13 +11076,13 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B345" s="11">
         <v>1</v>
       </c>
       <c r="C345" s="10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>709</v>
@@ -11096,13 +11096,13 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B346" s="11">
         <v>1</v>
       </c>
       <c r="C346" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>709</v>
@@ -11116,13 +11116,13 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B347" s="11">
         <v>1</v>
       </c>
       <c r="C347" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>709</v>
@@ -11136,13 +11136,13 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="B348" s="11">
+        <v>1</v>
+      </c>
+      <c r="C348" s="10" t="s">
         <v>812</v>
-      </c>
-      <c r="B348" s="11">
-        <v>1</v>
-      </c>
-      <c r="C348" s="10" t="s">
-        <v>813</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>709</v>
@@ -11156,13 +11156,13 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="B349" s="11">
+        <v>1</v>
+      </c>
+      <c r="C349" s="10" t="s">
         <v>814</v>
-      </c>
-      <c r="B349" s="11">
-        <v>1</v>
-      </c>
-      <c r="C349" s="10" t="s">
-        <v>815</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>709</v>
@@ -11176,13 +11176,13 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="B350" s="11">
+        <v>1</v>
+      </c>
+      <c r="C350" s="10" t="s">
         <v>816</v>
-      </c>
-      <c r="B350" s="11">
-        <v>1</v>
-      </c>
-      <c r="C350" s="10" t="s">
-        <v>817</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>709</v>
@@ -11196,13 +11196,13 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="B351" s="11">
+        <v>1</v>
+      </c>
+      <c r="C351" s="10" t="s">
         <v>818</v>
-      </c>
-      <c r="B351" s="11">
-        <v>1</v>
-      </c>
-      <c r="C351" s="10" t="s">
-        <v>819</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>709</v>
@@ -11216,13 +11216,13 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="B352" s="11">
+        <v>1</v>
+      </c>
+      <c r="C352" s="10" t="s">
         <v>820</v>
-      </c>
-      <c r="B352" s="11">
-        <v>1</v>
-      </c>
-      <c r="C352" s="10" t="s">
-        <v>821</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>709</v>
@@ -11236,13 +11236,13 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="B353" s="11">
+        <v>1</v>
+      </c>
+      <c r="C353" s="10" t="s">
         <v>822</v>
-      </c>
-      <c r="B353" s="11">
-        <v>1</v>
-      </c>
-      <c r="C353" s="10" t="s">
-        <v>823</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>709</v>
@@ -11259,7 +11259,7 @@
         <v>670</v>
       </c>
       <c r="C354" s="9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>718</v>
@@ -11273,7 +11273,7 @@
         <v>671</v>
       </c>
       <c r="C355" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>718</v>
@@ -11287,7 +11287,7 @@
         <v>672</v>
       </c>
       <c r="C356" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>709</v>
@@ -11298,13 +11298,13 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="17" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B357" s="11">
         <v>22</v>
       </c>
       <c r="C357" s="10" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>709</v>
@@ -11315,13 +11315,13 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B358" s="11">
         <v>22</v>
       </c>
       <c r="C358" s="10" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>709</v>
@@ -11332,13 +11332,13 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B359" s="11">
         <v>1</v>
       </c>
       <c r="C359" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>709</v>
@@ -11349,13 +11349,13 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B360" s="11">
         <v>1</v>
       </c>
       <c r="C360" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>709</v>
@@ -11366,13 +11366,13 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B361" s="17">
         <v>9</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>709</v>
@@ -11383,10 +11383,10 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C362" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>709</v>
@@ -11397,10 +11397,10 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>709</v>
@@ -11411,10 +11411,10 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C364" s="10" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>709</v>
@@ -11425,13 +11425,13 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="B365" s="11">
+        <v>1</v>
+      </c>
+      <c r="C365" s="10" t="s">
         <v>844</v>
-      </c>
-      <c r="B365" s="11">
-        <v>1</v>
-      </c>
-      <c r="C365" s="10" t="s">
-        <v>845</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>709</v>
@@ -11442,10 +11442,10 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="C366" s="10" t="s">
         <v>846</v>
-      </c>
-      <c r="C366" s="10" t="s">
-        <v>847</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>709</v>
@@ -11459,30 +11459,30 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C367" s="10" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="11" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C368" s="10" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="11" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C369" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G323" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G369" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G2:G1048576 E2:E357 E362 E366:E1048576">
     <cfRule type="cellIs" dxfId="25" priority="1105" operator="equal">

--- a/libs/All_OBIS.xlsx
+++ b/libs/All_OBIS.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DC7113-A6DD-4439-BC67-CDCC0DED81C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDD6DA1-D6A5-4158-978B-D189AE486277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2445" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34935" yWindow="3300" windowWidth="21600" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$369</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$371</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="854">
   <si>
     <t>OBIS</t>
   </si>
@@ -2784,7 +2784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2888,6 +2888,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3353,13 +3356,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N369"/>
+  <dimension ref="A1:N371"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B348" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A364" sqref="A364"/>
+      <selection pane="bottomRight" activeCell="C381" sqref="C381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11258,6 +11261,9 @@
       <c r="A354" s="18" t="s">
         <v>670</v>
       </c>
+      <c r="B354" s="11">
+        <v>1</v>
+      </c>
       <c r="C354" s="9" t="s">
         <v>825</v>
       </c>
@@ -11272,6 +11278,9 @@
       <c r="A355" s="18" t="s">
         <v>671</v>
       </c>
+      <c r="B355" s="11">
+        <v>1</v>
+      </c>
       <c r="C355" s="9" t="s">
         <v>824</v>
       </c>
@@ -11286,6 +11295,9 @@
       <c r="A356" s="18" t="s">
         <v>672</v>
       </c>
+      <c r="B356" s="11">
+        <v>1</v>
+      </c>
       <c r="C356" s="9" t="s">
         <v>826</v>
       </c>
@@ -11385,6 +11397,9 @@
       <c r="A362" s="11" t="s">
         <v>837</v>
       </c>
+      <c r="B362" s="11">
+        <v>124</v>
+      </c>
       <c r="C362" s="10" t="s">
         <v>840</v>
       </c>
@@ -11399,6 +11414,9 @@
       <c r="A363" s="11" t="s">
         <v>838</v>
       </c>
+      <c r="B363" s="11">
+        <v>124</v>
+      </c>
       <c r="C363" s="10" t="s">
         <v>841</v>
       </c>
@@ -11413,6 +11431,9 @@
       <c r="A364" s="11" t="s">
         <v>839</v>
       </c>
+      <c r="B364" s="11">
+        <v>124</v>
+      </c>
       <c r="C364" s="10" t="s">
         <v>842</v>
       </c>
@@ -11444,6 +11465,9 @@
       <c r="A366" s="11" t="s">
         <v>845</v>
       </c>
+      <c r="B366" s="11">
+        <v>1</v>
+      </c>
       <c r="C366" s="10" t="s">
         <v>846</v>
       </c>
@@ -11461,6 +11485,9 @@
       <c r="A367" s="11" t="s">
         <v>847</v>
       </c>
+      <c r="B367" s="11">
+        <v>1</v>
+      </c>
       <c r="C367" s="10" t="s">
         <v>850</v>
       </c>
@@ -11469,6 +11496,9 @@
       <c r="A368" s="11" t="s">
         <v>848</v>
       </c>
+      <c r="B368" s="11">
+        <v>1</v>
+      </c>
       <c r="C368" s="10" t="s">
         <v>851</v>
       </c>
@@ -11477,12 +11507,37 @@
       <c r="A369" s="11" t="s">
         <v>849</v>
       </c>
+      <c r="B369" s="11">
+        <v>1</v>
+      </c>
       <c r="C369" s="10" t="s">
         <v>852</v>
       </c>
     </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="B370" s="11">
+        <v>40</v>
+      </c>
+      <c r="C370" s="36" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="B371" s="11">
+        <v>40</v>
+      </c>
+      <c r="C371" s="10" t="s">
+        <v>834</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G369" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G371" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G2:G1048576 E2:E357 E362 E366:E1048576">
     <cfRule type="cellIs" dxfId="25" priority="1105" operator="equal">

--- a/libs/All_OBIS.xlsx
+++ b/libs/All_OBIS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDD6DA1-D6A5-4158-978B-D189AE486277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D477CB-6AF5-4C2D-A424-21FBA69CBAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34935" yWindow="3300" windowWidth="21600" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -2897,18 +2897,11 @@
     <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2979,69 +2972,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3359,10 +3289,10 @@
   <dimension ref="A1:N371"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B314" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C381" sqref="C381"/>
+      <selection pane="bottomRight" activeCell="B337" sqref="B337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10842,7 +10772,7 @@
         <v>781</v>
       </c>
       <c r="B333" s="11">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C333" s="10" t="s">
         <v>783</v>
@@ -10862,7 +10792,7 @@
         <v>782</v>
       </c>
       <c r="B334" s="11">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C334" s="10" t="s">
         <v>784</v>
@@ -10882,7 +10812,7 @@
         <v>788</v>
       </c>
       <c r="B335" s="11">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C335" s="10" t="s">
         <v>785</v>
@@ -10902,7 +10832,7 @@
         <v>789</v>
       </c>
       <c r="B336" s="11">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C336" s="10" t="s">
         <v>786</v>
@@ -10922,7 +10852,7 @@
         <v>790</v>
       </c>
       <c r="B337" s="11">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C337" s="10" t="s">
         <v>787</v>
@@ -11539,47 +11469,7 @@
   </sheetData>
   <autoFilter ref="A1:G371" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="G2:G1048576 E2:E357 E362 E366:E1048576">
-    <cfRule type="cellIs" dxfId="25" priority="1105" operator="equal">
-      <formula>$L$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="1106" operator="equal">
-      <formula>$L$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E358">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
-      <formula>$L$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
-      <formula>$L$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E359">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
-      <formula>$L$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
-      <formula>$L$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E360">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
-      <formula>$L$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
-      <formula>$L$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E362">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
-      <formula>$L$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>$L$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E361">
+  <conditionalFormatting sqref="E2:E362">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>$L$3</formula>
     </cfRule>
@@ -11595,51 +11485,53 @@
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E364">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+  <conditionalFormatting sqref="E362 G2:G1048576">
+    <cfRule type="cellIs" dxfId="11" priority="1105" operator="equal">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E363">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>$L$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E363:E364">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>$L$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E364">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>$L$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E363">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>$L$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>$L$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E363">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>$L$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E365">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E365">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="E365:E1048576">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G1048576 E362">
+    <cfRule type="cellIs" dxfId="0" priority="1106" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
